--- a/documents/database-schema.xlsx
+++ b/documents/database-schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJSU\spring-22\cmpe-202\team-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJSU\spring-22\cmpe-202\team-project\team-project-logn\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673562C-5232-4B82-BC3D-0BF9E0155A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB240C7E-0193-4A3F-957C-8EFE1CD4EDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Customer</t>
   </si>
@@ -126,9 +126,6 @@
     <t>customerId</t>
   </si>
   <si>
-    <t>roomType</t>
-  </si>
-  <si>
     <t>stayFrom</t>
   </si>
   <si>
@@ -205,6 +202,15 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discuss </t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>roomid</t>
   </si>
 </sst>
 </file>
@@ -535,7 +541,7 @@
   <dimension ref="A2:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,12 +566,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -628,17 +634,17 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,71 +691,86 @@
       <c r="A33" t="s">
         <v>20</v>
       </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,12 +785,12 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -779,12 +800,12 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,59 +830,60 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" t="s">
         <v>55</v>
-      </c>
-      <c r="B68" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/database-schema.xlsx
+++ b/documents/database-schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJSU\spring-22\cmpe-202\team-project\team-project-logn\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB240C7E-0193-4A3F-957C-8EFE1CD4EDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709FD65-08DA-46F7-B8F3-984156311B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838F31D3-2F1F-48FE-900D-7EBC03C3A19C}">
   <dimension ref="A3:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/database-schema.xlsx
+++ b/documents/database-schema.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SJSU\spring-22\cmpe-202\team-project\team-project-logn\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7709FD65-08DA-46F7-B8F3-984156311B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61F916A-D0F5-4923-A3DF-6FD51A937B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Customer</t>
   </si>
@@ -51,21 +51,12 @@
     <t>/update</t>
   </si>
   <si>
-    <t>/profile</t>
-  </si>
-  <si>
     <t>Booking - /booking/</t>
   </si>
   <si>
     <t>/create</t>
   </si>
   <si>
-    <t>/cancel</t>
-  </si>
-  <si>
-    <t>/getall</t>
-  </si>
-  <si>
     <t>/get/id</t>
   </si>
   <si>
@@ -211,6 +202,45 @@
   </si>
   <si>
     <t>roomid</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>done - employeee signup</t>
+  </si>
+  <si>
+    <t>/add</t>
+  </si>
+  <si>
+    <t>(employee signin)</t>
+  </si>
+  <si>
+    <t>search by city or name</t>
+  </si>
+  <si>
+    <t>/enroll/custid/hotelid</t>
+  </si>
+  <si>
+    <t>customer enrolled for particular hotel - gets 5000 loyalty bonus</t>
+  </si>
+  <si>
+    <t>Adjust price by amenities</t>
+  </si>
+  <si>
+    <t>/cancel/{booking_id}</t>
+  </si>
+  <si>
+    <t>/getall/hotel/{hotel_id}</t>
+  </si>
+  <si>
+    <t>/getall/customer/{cust_id}</t>
+  </si>
+  <si>
+    <t>/profile/{id}</t>
+  </si>
+  <si>
+    <t>/get/{id}</t>
   </si>
 </sst>
 </file>
@@ -561,135 +591,135 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>11</v>
@@ -697,7 +727,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>11</v>
@@ -705,180 +735,180 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" t="s">
         <v>52</v>
-      </c>
-      <c r="B66" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -889,82 +919,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838F31D3-2F1F-48FE-900D-7EBC03C3A19C}">
-  <dimension ref="A3:A19"/>
+  <dimension ref="A3:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.5703125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
